--- a/数据和处理/Data_preprocessing.xlsx
+++ b/数据和处理/Data_preprocessing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" activeTab="4"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Preprocessing_judgment" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
     <t>补充方案（假设 / 获取途径）</t>
   </si>
   <si>
-    <t>补充数据示例</t>
+    <t>补充数据</t>
   </si>
   <si>
     <t>补充依据 / 用途</t>
@@ -600,10 +600,50 @@
     <t>电机安全阈值（扭矩 / 转速）</t>
   </si>
   <si>
-    <t>1. 参考同类机器人公开数据：Unitree G1 关节电机最大扭矩约 5~8 N・m，最大转速约 100 rad/s；</t>
-  </si>
-  <si>
-    <t>最大扭矩 T_max=6 N・m，最大转速 ω_max=80 rad/s</t>
+    <r>
+      <t>1. 参考同类机器人公开数据：Unitree G1 关节电机最大扭矩约 5~8 N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m，最大转速约 100 rad/s；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大扭矩 T_max=120 N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m，最大转速 ω_max=25000rpm</t>
+    </r>
   </si>
   <si>
     <t>问题 1 “电机安全验证” 需阈值对比，无阈值则无法判断动作是否合规，因此必须补充；取值参考真实产品确保合理性。</t>
@@ -621,18 +661,7 @@
     <t>1. 获取途径：Unitree G1 技术手册（https://www.unitree.com/cn/g1）查询各部件质量；</t>
   </si>
   <si>
-    <r>
-      <t>左臂质量 m=2 kg，转动惯量 J=0.05 kg・m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>²</t>
-    </r>
+    <t>左臂质量 m=3.82kg，右臂质量 m=3.82kg，左腿质量 m=9.98kg，右腿质量 m=9.98kg，</t>
   </si>
   <si>
     <t>仅多体动力学模型（小问 3 方案二）需该数据，简化模型（如坐标转换）无需；补充后可提升动力学计算精度，属于 “优化项”。</t>
@@ -1043,15 +1072,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2615,7 +2644,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2720,7 +2749,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
@@ -2863,7 +2892,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
